--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_18_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_18_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59113.53119354414</v>
+        <v>11763592.70751527</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59113.53119354414</v>
+        <v>11763592.70751527</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>456.2227906463888</v>
+        <v>30242.53374063225</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>456.2227906463888</v>
+        <v>30242.53374063225</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112768747.605187</v>
+        <v>45943542.73157598</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9584.757649843103</v>
+        <v>1074396.647677</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18122.93180525124</v>
+        <v>1986379.91967704</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26661.10596065937</v>
+        <v>2898363.191677082</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35271.76090456213</v>
+        <v>3815666.527736396</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>43861.03403028308</v>
+        <v>4728714.881977528</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>52450.30715600403</v>
+        <v>5641763.236218658</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61039.58028172496</v>
+        <v>6554811.590459786</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>69628.8534074459</v>
+        <v>7467859.944700914</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>78216.28842138042</v>
+        <v>8380716.862366379</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>86804.43616258765</v>
+        <v>9293715.612759119</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>95392.58390379488</v>
+        <v>10206714.36315186</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>103909.3305393646</v>
+        <v>11114151.16644573</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>112447.4589931161</v>
+        <v>12025842.95155779</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>120985.5874468677</v>
+        <v>12937534.73666983</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>129523.7159006192</v>
+        <v>13849226.52178188</v>
       </c>
     </row>
   </sheetData>
@@ -27040,10 +27040,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>392</v>
@@ -27055,10 +27055,10 @@
         <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>392</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>363</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>30</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
